--- a/src/models/baselines/RF/results/synthetic/topology/tv2/metrics.xlsx
+++ b/src/models/baselines/RF/results/synthetic/topology/tv2/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.398989898989899</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.398989898989899</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6213651668197122</v>
+        <v>0.7335667278849097</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4898989898989899</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4898989898989899</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6560299969390879</v>
+        <v>0.8420186715641261</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6508647076828895</v>
+        <v>0.8225818794000611</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5404040404040404</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5404040404040404</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7113559840832567</v>
+        <v>0.8301958983777166</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6867156412610959</v>
+        <v>0.8050964187327824</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="D7" t="n">
-        <v>0.611455463728191</v>
+        <v>0.8280532598714417</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6792164064891337</v>
+        <v>0.793885827976737</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5202020202020202</v>
+        <v>0.601010101010101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5202020202020202</v>
+        <v>0.601010101010101</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6629553106825834</v>
+        <v>0.7844543924089379</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6393097643097643</v>
+        <v>0.8279384756657483</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4292929292929293</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4292929292929293</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5928221610039791</v>
+        <v>0.7760942760942761</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.6368686868686869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.6368686868686869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6512090602999694</v>
+        <v>0.8043885827976738</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04442658553547674</v>
+        <v>0.03849664444476669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04442658553547676</v>
+        <v>0.03849664444476669</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03627938694274219</v>
+        <v>0.0330859743975023</v>
       </c>
     </row>
   </sheetData>
